--- a/ig/ch-lab-report/StructureDefinition-ch-lab-observation-cbc-panel.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-observation-cbc-panel.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$133</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5258" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5145" uniqueCount="703">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>CH LAB Observation Results CBC Panel - Blood by Automated count, Results in nested Profiles</t>
+    <t>CH LAB-Report Observation Results CBC Panel - Blood by Automated count, Results in nested Profiles</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T09:40:37+00:00</t>
+    <t>2024-12-18T08:59:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(WORK))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -930,7 +930,7 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -991,7 +991,7 @@
 </t>
   </si>
   <si>
-    <t>Type of observation (code / type)</t>
+    <t>CBC panel Auto (Bld)</t>
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "name".  In this profile this code represents either a simple laboratory test or a laboratory study with multiple child observations</t>
@@ -1007,7 +1007,6 @@
   &lt;coding&gt;
     &lt;system value="http://loinc.org"/&gt;
     &lt;code value="58410-2"/&gt;
-    &lt;display value="CBC panel - Blood by Automated count"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1031,67 +1030,6 @@
   </si>
   <si>
     <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Observation.code.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CBC panel Auto (Bld)</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -1418,8 +1356,8 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+    <t>integer
+SampledData</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -1461,6 +1399,16 @@
   </si>
   <si>
     <t>valueString</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueBoolean</t>
+  </si>
+  <si>
+    <t>valueBoolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
   </si>
   <si>
     <t>Observation.value[x]:valueRange</t>
@@ -2092,19 +2040,6 @@
     <t>Erythrocyte Distribution Width</t>
   </si>
   <si>
-    <t>Observation.hasMember:ErythrocyteDistWidthRatio</t>
-  </si>
-  <si>
-    <t>ErythrocyteDistWidthRatio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-lab-report/StructureDefinition/ch-lab-observation-results-ery-dist-width-ratio)
-</t>
-  </si>
-  <si>
-    <t>Erythrocyte Distribution Width Ratio</t>
-  </si>
-  <si>
     <t>Observation.hasMember:PlateletCount</t>
   </si>
   <si>
@@ -2245,6 +2180,10 @@
     <t>Observation.component.value[x]</t>
   </si>
   <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+  </si>
+  <si>
     <t>Actual component result</t>
   </si>
   <si>
@@ -2255,6 +2194,9 @@
   </si>
   <si>
     <t>Observation.component.value[x]:valueString</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x]:valueBoolean</t>
   </si>
   <si>
     <t>Observation.component.value[x]:valueRange</t>
@@ -2630,7 +2572,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP136"/>
+  <dimension ref="A1:AP133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8441,7 +8383,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>95</v>
@@ -8453,19 +8395,23 @@
         <v>84</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>160</v>
+        <v>322</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>161</v>
+        <v>323</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>84</v>
       </c>
@@ -8513,7 +8459,7 @@
         <v>84</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>163</v>
+        <v>321</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>82</v>
@@ -8525,22 +8471,22 @@
         <v>84</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>84</v>
+        <v>327</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>84</v>
+        <v>328</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>164</v>
+        <v>329</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>84</v>
+        <v>330</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>84</v>
@@ -8548,21 +8494,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>84</v>
@@ -8574,17 +8520,15 @@
         <v>84</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>84</v>
@@ -8621,31 +8565,31 @@
         <v>84</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>84</v>
@@ -8668,14 +8612,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8691,23 +8635,21 @@
         <v>84</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>324</v>
+        <v>140</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>325</v>
+        <v>168</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>326</v>
+        <v>169</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>84</v>
       </c>
@@ -8743,19 +8685,19 @@
         <v>84</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>329</v>
+        <v>172</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>82</v>
@@ -8767,7 +8709,7 @@
         <v>84</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>84</v>
@@ -8776,10 +8718,10 @@
         <v>84</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>330</v>
+        <v>84</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>84</v>
@@ -8790,10 +8732,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8801,7 +8743,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>95</v>
@@ -8819,17 +8761,15 @@
         <v>160</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="O52" t="s" s="2">
         <v>336</v>
       </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>84</v>
       </c>
@@ -8838,55 +8778,55 @@
         <v>84</v>
       </c>
       <c r="S52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="T52" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF52" t="s" s="2">
+      <c r="AG52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AI52" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>107</v>
@@ -8898,10 +8838,10 @@
         <v>84</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>339</v>
+        <v>84</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>340</v>
+        <v>138</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>84</v>
@@ -8912,10 +8852,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8923,7 +8863,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>95</v>
@@ -8938,20 +8878,18 @@
         <v>96</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>346</v>
-      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>84</v>
       </c>
@@ -8975,13 +8913,13 @@
         <v>84</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>84</v>
+        <v>343</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>84</v>
+        <v>344</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>84</v>
+        <v>345</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>84</v>
@@ -8999,7 +8937,7 @@
         <v>84</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>82</v>
@@ -9014,19 +8952,19 @@
         <v>107</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>347</v>
+        <v>84</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>348</v>
+        <v>84</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>349</v>
+        <v>138</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>350</v>
+        <v>84</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>84</v>
@@ -9034,10 +8972,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9057,18 +8995,20 @@
         <v>84</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>161</v>
+        <v>348</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>84</v>
@@ -9117,7 +9057,7 @@
         <v>84</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>163</v>
+        <v>351</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>82</v>
@@ -9129,7 +9069,7 @@
         <v>84</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>84</v>
@@ -9141,7 +9081,7 @@
         <v>84</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>164</v>
+        <v>352</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>84</v>
@@ -9152,21 +9092,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>84</v>
@@ -9175,19 +9115,19 @@
         <v>84</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>168</v>
+        <v>354</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>169</v>
+        <v>355</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>170</v>
+        <v>356</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9225,31 +9165,31 @@
         <v>84</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>172</v>
+        <v>357</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>84</v>
@@ -9261,7 +9201,7 @@
         <v>84</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>84</v>
@@ -9272,10 +9212,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9283,10 +9223,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>84</v>
@@ -9298,16 +9238,16 @@
         <v>96</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>160</v>
+        <v>359</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9357,16 +9297,16 @@
         <v>84</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>358</v>
+        <v>84</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>107</v>
@@ -9378,13 +9318,13 @@
         <v>84</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>138</v>
+        <v>363</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>84</v>
+        <v>330</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>84</v>
@@ -9392,14 +9332,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>84</v>
+        <v>365</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9418,18 +9358,20 @@
         <v>96</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>109</v>
+        <v>366</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>84</v>
       </c>
@@ -9453,31 +9395,31 @@
         <v>84</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>363</v>
+        <v>84</v>
       </c>
       <c r="Y57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF57" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>82</v>
@@ -9492,19 +9434,19 @@
         <v>107</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>84</v>
+        <v>371</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>84</v>
+        <v>372</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>138</v>
+        <v>373</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>84</v>
+        <v>374</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>84</v>
@@ -9512,18 +9454,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>84</v>
+        <v>376</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>95</v>
@@ -9538,18 +9480,20 @@
         <v>96</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>244</v>
+        <v>377</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>84</v>
       </c>
@@ -9597,7 +9541,7 @@
         <v>84</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>82</v>
@@ -9612,19 +9556,19 @@
         <v>107</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>84</v>
+        <v>382</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>84</v>
+        <v>383</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>84</v>
+        <v>385</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>84</v>
@@ -9632,10 +9576,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9655,20 +9599,18 @@
         <v>84</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>160</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>374</v>
+        <v>161</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>84</v>
@@ -9717,7 +9659,7 @@
         <v>84</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>377</v>
+        <v>163</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>82</v>
@@ -9729,7 +9671,7 @@
         <v>84</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>84</v>
@@ -9741,7 +9683,7 @@
         <v>84</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>84</v>
@@ -9752,14 +9694,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9775,19 +9717,19 @@
         <v>84</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>379</v>
+        <v>140</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>380</v>
+        <v>168</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>381</v>
+        <v>169</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>382</v>
+        <v>170</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9825,19 +9767,19 @@
         <v>84</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>378</v>
+        <v>172</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>82</v>
@@ -9849,7 +9791,7 @@
         <v>84</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>84</v>
@@ -9858,13 +9800,13 @@
         <v>84</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>317</v>
+        <v>84</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>383</v>
+        <v>164</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>350</v>
+        <v>84</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>84</v>
@@ -9872,14 +9814,16 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="D61" t="s" s="2">
-        <v>385</v>
+        <v>84</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9895,23 +9839,19 @@
         <v>84</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>84</v>
       </c>
@@ -9959,34 +9899,34 @@
         <v>84</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>384</v>
+        <v>172</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>391</v>
+        <v>84</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>392</v>
+        <v>84</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>393</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>394</v>
+        <v>84</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>84</v>
@@ -9994,18 +9934,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>396</v>
+        <v>84</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>95</v>
@@ -10020,20 +9960,18 @@
         <v>96</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>401</v>
-      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>84</v>
       </c>
@@ -10081,7 +10019,7 @@
         <v>84</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>82</v>
@@ -10096,19 +10034,19 @@
         <v>107</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>402</v>
+        <v>84</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>84</v>
@@ -10116,10 +10054,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -10127,10 +10065,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>84</v>
@@ -10139,19 +10077,21 @@
         <v>84</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>160</v>
+        <v>403</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>161</v>
+        <v>404</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>162</v>
+        <v>405</v>
       </c>
       <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>84</v>
       </c>
@@ -10199,34 +10139,34 @@
         <v>84</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>163</v>
+        <v>402</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>84</v>
+        <v>407</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>84</v>
+        <v>408</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>164</v>
+        <v>409</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>84</v>
+        <v>410</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>84</v>
@@ -10234,21 +10174,21 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>84</v>
@@ -10260,17 +10200,15 @@
         <v>84</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>84</v>
@@ -10307,31 +10245,31 @@
         <v>84</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>84</v>
@@ -10354,23 +10292,21 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>84</v>
@@ -10382,15 +10318,17 @@
         <v>84</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>410</v>
+        <v>140</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>411</v>
+        <v>168</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>84</v>
@@ -10427,16 +10365,16 @@
         <v>84</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>172</v>
@@ -10463,7 +10401,7 @@
         <v>84</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>413</v>
+        <v>164</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>84</v>
@@ -10474,12 +10412,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C66" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="B66" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
         <v>84</v>
       </c>
@@ -10488,7 +10428,7 @@
         <v>82</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>84</v>
@@ -10497,7 +10437,7 @@
         <v>84</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>415</v>
@@ -10508,9 +10448,7 @@
       <c r="M66" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="N66" t="s" s="2">
-        <v>418</v>
-      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>84</v>
@@ -10559,34 +10497,34 @@
         <v>84</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>414</v>
+        <v>172</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>84</v>
+        <v>418</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>419</v>
+        <v>84</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>420</v>
+        <v>84</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>421</v>
+        <v>84</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>84</v>
@@ -10594,10 +10532,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10605,10 +10543,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>84</v>
@@ -10620,18 +10558,18 @@
         <v>96</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>423</v>
+        <v>160</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>424</v>
+        <v>334</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>84</v>
       </c>
@@ -10679,34 +10617,34 @@
         <v>84</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>422</v>
+        <v>337</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>84</v>
+        <v>338</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>427</v>
+        <v>84</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>428</v>
+        <v>84</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>429</v>
+        <v>138</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>430</v>
+        <v>84</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>84</v>
@@ -10714,10 +10652,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10737,18 +10675,20 @@
         <v>84</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>161</v>
+        <v>340</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>84</v>
@@ -10773,13 +10713,13 @@
         <v>84</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>84</v>
+        <v>343</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>84</v>
+        <v>344</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>84</v>
+        <v>345</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>84</v>
@@ -10797,7 +10737,7 @@
         <v>84</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>163</v>
+        <v>346</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>82</v>
@@ -10809,7 +10749,7 @@
         <v>84</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>84</v>
@@ -10821,7 +10761,7 @@
         <v>84</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>84</v>
@@ -10832,21 +10772,21 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>84</v>
@@ -10855,19 +10795,19 @@
         <v>84</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>140</v>
+        <v>244</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>168</v>
+        <v>348</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>169</v>
+        <v>349</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>170</v>
+        <v>350</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10905,31 +10845,31 @@
         <v>84</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>172</v>
+        <v>351</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>84</v>
@@ -10941,7 +10881,7 @@
         <v>84</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>164</v>
+        <v>352</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>84</v>
@@ -10952,14 +10892,12 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
         <v>84</v>
       </c>
@@ -10968,7 +10906,7 @@
         <v>82</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>84</v>
@@ -10977,18 +10915,20 @@
         <v>84</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>435</v>
+        <v>160</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>436</v>
+        <v>354</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>84</v>
@@ -11037,22 +10977,22 @@
         <v>84</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>172</v>
+        <v>357</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>438</v>
+        <v>84</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>84</v>
@@ -11061,7 +11001,7 @@
         <v>84</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>84</v>
@@ -11072,10 +11012,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11098,18 +11038,20 @@
         <v>96</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>160</v>
+        <v>424</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>354</v>
+        <v>425</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>355</v>
+        <v>426</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>84</v>
       </c>
@@ -11145,19 +11087,17 @@
         <v>84</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="AC71" s="2"/>
       <c r="AD71" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>84</v>
+        <v>430</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>357</v>
+        <v>423</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>82</v>
@@ -11166,7 +11106,7 @@
         <v>95</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>358</v>
+        <v>431</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>107</v>
@@ -11175,29 +11115,31 @@
         <v>84</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>84</v>
+        <v>432</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>84</v>
+        <v>433</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>138</v>
+        <v>434</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="D72" t="s" s="2">
         <v>84</v>
       </c>
@@ -11206,7 +11148,7 @@
         <v>82</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>84</v>
@@ -11218,18 +11160,20 @@
         <v>96</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>360</v>
+        <v>425</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>361</v>
+        <v>426</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>84</v>
       </c>
@@ -11253,13 +11197,13 @@
         <v>84</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>363</v>
+        <v>84</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>364</v>
+        <v>84</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>365</v>
+        <v>84</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>84</v>
@@ -11277,7 +11221,7 @@
         <v>84</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>82</v>
@@ -11286,7 +11230,7 @@
         <v>95</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>84</v>
+        <v>431</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>107</v>
@@ -11295,29 +11239,31 @@
         <v>84</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>84</v>
+        <v>432</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>84</v>
+        <v>433</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>138</v>
+        <v>434</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="D73" t="s" s="2">
         <v>84</v>
       </c>
@@ -11326,7 +11272,7 @@
         <v>82</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>84</v>
@@ -11338,18 +11284,20 @@
         <v>96</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>244</v>
+        <v>440</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>368</v>
+        <v>425</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>84</v>
       </c>
@@ -11397,7 +11345,7 @@
         <v>84</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>82</v>
@@ -11406,7 +11354,7 @@
         <v>95</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>84</v>
+        <v>431</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>107</v>
@@ -11415,29 +11363,31 @@
         <v>84</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>84</v>
+        <v>432</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>84</v>
+        <v>433</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>372</v>
+        <v>434</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="C74" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="B74" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
         <v>84</v>
       </c>
@@ -11446,7 +11396,7 @@
         <v>82</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>84</v>
@@ -11455,21 +11405,23 @@
         <v>84</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>160</v>
+        <v>443</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>374</v>
+        <v>444</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>375</v>
+        <v>445</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>84</v>
       </c>
@@ -11517,7 +11469,7 @@
         <v>84</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>82</v>
@@ -11526,10 +11478,10 @@
         <v>95</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>107</v>
+        <v>447</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>84</v>
@@ -11538,10 +11490,10 @@
         <v>84</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>84</v>
+        <v>448</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>138</v>
+        <v>449</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>84</v>
@@ -11552,12 +11504,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="D75" t="s" s="2">
         <v>84</v>
       </c>
@@ -11566,7 +11520,7 @@
         <v>82</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>84</v>
@@ -11575,22 +11529,22 @@
         <v>84</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>84</v>
@@ -11627,17 +11581,19 @@
         <v>84</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AC75" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="AD75" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>450</v>
+        <v>84</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>82</v>
@@ -11646,39 +11602,39 @@
         <v>95</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>451</v>
+        <v>157</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>107</v>
+        <v>456</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>452</v>
+        <v>84</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>453</v>
+        <v>138</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>455</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>84</v>
@@ -11700,19 +11656,19 @@
         <v>96</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>160</v>
+        <v>460</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>84</v>
@@ -11761,7 +11717,7 @@
         <v>84</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>82</v>
@@ -11770,7 +11726,7 @@
         <v>95</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>107</v>
@@ -11779,30 +11735,30 @@
         <v>84</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>455</v>
+        <v>435</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>84</v>
@@ -11821,22 +11777,22 @@
         <v>84</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>461</v>
+        <v>425</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>462</v>
+        <v>426</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>463</v>
+        <v>427</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>84</v>
@@ -11885,7 +11841,7 @@
         <v>84</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>82</v>
@@ -11894,39 +11850,39 @@
         <v>95</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>157</v>
+        <v>431</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>464</v>
+        <v>107</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>84</v>
+        <v>432</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>466</v>
+        <v>434</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>84</v>
@@ -11945,22 +11901,22 @@
         <v>84</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>471</v>
+        <v>426</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>472</v>
+        <v>427</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>84</v>
@@ -12009,7 +11965,7 @@
         <v>84</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>82</v>
@@ -12018,39 +11974,39 @@
         <v>95</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>157</v>
+        <v>431</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>473</v>
+        <v>107</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>84</v>
+        <v>432</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>138</v>
+        <v>433</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>474</v>
+        <v>434</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>84</v>
@@ -12069,22 +12025,22 @@
         <v>84</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>445</v>
+        <v>470</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>446</v>
+        <v>471</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>84</v>
@@ -12133,7 +12089,7 @@
         <v>84</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>82</v>
@@ -12142,39 +12098,39 @@
         <v>95</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>451</v>
+        <v>157</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>107</v>
+        <v>473</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>452</v>
+        <v>84</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>455</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>84</v>
@@ -12196,19 +12152,19 @@
         <v>96</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>480</v>
+        <v>284</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>84</v>
@@ -12233,13 +12189,11 @@
         <v>84</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>84</v>
+        <v>478</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>84</v>
@@ -12257,7 +12211,7 @@
         <v>84</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>443</v>
+        <v>423</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>82</v>
@@ -12266,7 +12220,7 @@
         <v>95</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>107</v>
@@ -12275,31 +12229,29 @@
         <v>84</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>455</v>
+        <v>435</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
         <v>84</v>
       </c>
@@ -12308,7 +12260,7 @@
         <v>82</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>84</v>
@@ -12317,22 +12269,22 @@
         <v>84</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="O81" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>84</v>
@@ -12357,13 +12309,13 @@
         <v>84</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>84</v>
+        <v>343</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>84</v>
+        <v>484</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>84</v>
@@ -12381,7 +12333,7 @@
         <v>84</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>443</v>
+        <v>479</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>82</v>
@@ -12390,7 +12342,7 @@
         <v>95</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>451</v>
+        <v>486</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>107</v>
@@ -12399,43 +12351,41 @@
         <v>84</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>452</v>
+        <v>84</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>453</v>
+        <v>138</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>454</v>
+        <v>487</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>455</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>84</v>
+        <v>489</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>84</v>
@@ -12444,19 +12394,19 @@
         <v>84</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>486</v>
+        <v>284</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>448</v>
+        <v>493</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>84</v>
@@ -12481,13 +12431,13 @@
         <v>84</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>84</v>
+        <v>343</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>84</v>
+        <v>494</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>84</v>
+        <v>495</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>84</v>
@@ -12505,49 +12455,47 @@
         <v>84</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>443</v>
+        <v>488</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>490</v>
+        <v>107</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>84</v>
+        <v>496</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>84</v>
+        <v>499</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>494</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
         <v>84</v>
       </c>
@@ -12556,31 +12504,31 @@
         <v>82</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>284</v>
+        <v>501</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>446</v>
+        <v>503</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>84</v>
@@ -12605,11 +12553,13 @@
         <v>84</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="Y83" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="Z83" t="s" s="2">
-        <v>495</v>
+        <v>84</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>84</v>
@@ -12627,16 +12577,16 @@
         <v>84</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>451</v>
+        <v>84</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>107</v>
@@ -12645,27 +12595,27 @@
         <v>84</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>452</v>
+        <v>84</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>455</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12691,17 +12641,15 @@
         <v>284</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>84</v>
       </c>
@@ -12725,13 +12673,13 @@
         <v>84</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>363</v>
+        <v>512</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>84</v>
@@ -12749,7 +12697,7 @@
         <v>84</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>82</v>
@@ -12758,7 +12706,7 @@
         <v>95</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>503</v>
+        <v>84</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>107</v>
@@ -12767,41 +12715,41 @@
         <v>84</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>84</v>
+        <v>515</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>138</v>
+        <v>516</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>84</v>
+        <v>518</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>506</v>
+        <v>84</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>84</v>
@@ -12813,16 +12761,16 @@
         <v>284</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>84</v>
@@ -12847,13 +12795,11 @@
         <v>84</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>511</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>84</v>
@@ -12871,13 +12817,13 @@
         <v>84</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>84</v>
@@ -12889,27 +12835,27 @@
         <v>84</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>513</v>
+        <v>84</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>516</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12920,10 +12866,10 @@
         <v>82</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>84</v>
@@ -12932,20 +12878,18 @@
         <v>84</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>522</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>84</v>
       </c>
@@ -12993,13 +12937,13 @@
         <v>84</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>84</v>
@@ -13011,27 +12955,27 @@
         <v>84</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>84</v>
+        <v>532</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>84</v>
+        <v>535</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13054,16 +12998,16 @@
         <v>84</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>284</v>
+        <v>537</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -13089,13 +13033,13 @@
         <v>84</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>529</v>
+        <v>84</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>530</v>
+        <v>84</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>531</v>
+        <v>84</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>84</v>
@@ -13113,7 +13057,7 @@
         <v>84</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>82</v>
@@ -13131,27 +13075,27 @@
         <v>84</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>535</v>
+        <v>544</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13162,7 +13106,7 @@
         <v>82</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>84</v>
@@ -13174,19 +13118,19 @@
         <v>84</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>284</v>
+        <v>546</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>84</v>
@@ -13211,11 +13155,13 @@
         <v>84</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="Y88" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="Z88" t="s" s="2">
-        <v>541</v>
+        <v>84</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>84</v>
@@ -13233,19 +13179,19 @@
         <v>84</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>107</v>
+        <v>551</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>84</v>
@@ -13254,10 +13200,10 @@
         <v>84</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>84</v>
@@ -13268,10 +13214,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13294,17 +13240,15 @@
         <v>84</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>545</v>
+        <v>160</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>546</v>
+        <v>161</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>548</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>84</v>
@@ -13353,7 +13297,7 @@
         <v>84</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>544</v>
+        <v>163</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>82</v>
@@ -13365,44 +13309,44 @@
         <v>84</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>549</v>
+        <v>84</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>550</v>
+        <v>84</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>551</v>
+        <v>164</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>552</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>84</v>
@@ -13414,16 +13358,16 @@
         <v>84</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>554</v>
+        <v>140</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>555</v>
+        <v>168</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>556</v>
+        <v>169</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>557</v>
+        <v>170</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13473,49 +13417,49 @@
         <v>84</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>553</v>
+        <v>172</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>558</v>
+        <v>84</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>559</v>
+        <v>84</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>560</v>
+        <v>164</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>561</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>84</v>
+        <v>557</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13528,25 +13472,25 @@
         <v>84</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>563</v>
+        <v>140</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>566</v>
+        <v>170</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>567</v>
+        <v>241</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>84</v>
@@ -13595,7 +13539,7 @@
         <v>84</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>82</v>
@@ -13607,7 +13551,7 @@
         <v>84</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>568</v>
+        <v>146</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>84</v>
@@ -13616,10 +13560,10 @@
         <v>84</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>569</v>
+        <v>84</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>570</v>
+        <v>138</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>84</v>
@@ -13630,10 +13574,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13656,13 +13600,13 @@
         <v>84</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>160</v>
+        <v>562</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>161</v>
+        <v>563</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>162</v>
+        <v>564</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13713,7 +13657,7 @@
         <v>84</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>163</v>
+        <v>561</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>82</v>
@@ -13722,10 +13666,10 @@
         <v>95</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>84</v>
+        <v>565</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>84</v>
@@ -13734,10 +13678,10 @@
         <v>84</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>84</v>
+        <v>566</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>164</v>
+        <v>567</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>84</v>
@@ -13748,21 +13692,21 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>84</v>
@@ -13774,17 +13718,15 @@
         <v>84</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>140</v>
+        <v>562</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>168</v>
+        <v>569</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>84</v>
@@ -13833,19 +13775,19 @@
         <v>84</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>172</v>
+        <v>568</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>84</v>
+        <v>565</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>84</v>
@@ -13854,10 +13796,10 @@
         <v>84</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>84</v>
+        <v>566</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>164</v>
+        <v>571</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>84</v>
@@ -13868,45 +13810,45 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>574</v>
+        <v>84</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>140</v>
+        <v>284</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="N94" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>84</v>
@@ -13931,13 +13873,13 @@
         <v>84</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>84</v>
+        <v>577</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>84</v>
+        <v>578</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>84</v>
@@ -13955,31 +13897,31 @@
         <v>84</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>84</v>
+        <v>579</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>84</v>
+        <v>580</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>138</v>
+        <v>498</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>84</v>
@@ -13990,10 +13932,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14004,7 +13946,7 @@
         <v>82</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>84</v>
@@ -14016,16 +13958,20 @@
         <v>84</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>579</v>
+        <v>284</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
+        <v>583</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>585</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>84</v>
       </c>
@@ -14049,13 +13995,13 @@
         <v>84</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>84</v>
+        <v>512</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>84</v>
+        <v>586</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>84</v>
+        <v>587</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>84</v>
@@ -14073,16 +14019,16 @@
         <v>84</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>582</v>
+        <v>84</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>107</v>
@@ -14091,13 +14037,13 @@
         <v>84</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>84</v>
+        <v>579</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>584</v>
+        <v>498</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>84</v>
@@ -14108,10 +14054,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14134,16 +14080,18 @@
         <v>84</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>592</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>84</v>
       </c>
@@ -14191,7 +14139,7 @@
         <v>84</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>82</v>
@@ -14200,7 +14148,7 @@
         <v>95</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>582</v>
+        <v>84</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>107</v>
@@ -14212,10 +14160,10 @@
         <v>84</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>583</v>
+        <v>84</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>84</v>
@@ -14226,10 +14174,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14252,20 +14200,16 @@
         <v>84</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>284</v>
+        <v>160</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>593</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>84</v>
       </c>
@@ -14289,31 +14233,31 @@
         <v>84</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="Y97" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF97" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>82</v>
@@ -14331,13 +14275,13 @@
         <v>84</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>596</v>
+        <v>84</v>
       </c>
       <c r="AM97" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>84</v>
@@ -14359,7 +14303,7 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>82</v>
+        <v>599</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>83</v>
@@ -14371,23 +14315,21 @@
         <v>84</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>284</v>
+        <v>600</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>602</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>84</v>
       </c>
@@ -14411,28 +14353,26 @@
         <v>84</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>529</v>
+        <v>84</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>603</v>
+        <v>84</v>
       </c>
       <c r="Z98" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB98" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="AA98" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>84</v>
-      </c>
+      <c r="AC98" s="2"/>
       <c r="AD98" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>598</v>
@@ -14453,13 +14393,13 @@
         <v>84</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>596</v>
+        <v>84</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>515</v>
+        <v>606</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>84</v>
@@ -14470,44 +14410,48 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="C99" s="2"/>
+        <v>598</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>608</v>
+      </c>
       <c r="D99" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="E99" s="2"/>
+      <c r="E99" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="F99" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>95</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>609</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>84</v>
       </c>
@@ -14555,13 +14499,13 @@
         <v>84</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>84</v>
@@ -14576,10 +14520,10 @@
         <v>84</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>84</v>
+        <v>605</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>84</v>
@@ -14593,38 +14537,44 @@
         <v>611</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="C100" s="2"/>
+        <v>598</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>612</v>
+      </c>
       <c r="D100" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="E100" s="2"/>
+      <c r="E100" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="F100" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>95</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>160</v>
+        <v>613</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>602</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>603</v>
+      </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>84</v>
@@ -14673,13 +14623,13 @@
         <v>84</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>84</v>
@@ -14694,10 +14644,10 @@
         <v>84</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>583</v>
+        <v>605</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>84</v>
@@ -14711,21 +14661,25 @@
         <v>615</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="C101" s="2"/>
+        <v>598</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>616</v>
+      </c>
       <c r="D101" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="E101" s="2"/>
+      <c r="E101" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="F101" t="s" s="2">
-        <v>616</v>
+        <v>95</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>84</v>
@@ -14737,13 +14691,13 @@
         <v>617</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14781,17 +14735,19 @@
         <v>84</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="AC101" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="AD101" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>82</v>
@@ -14812,10 +14768,10 @@
         <v>84</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>84</v>
@@ -14826,13 +14782,13 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="D102" t="s" s="2">
         <v>84</v>
@@ -14856,16 +14812,16 @@
         <v>96</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14915,7 +14871,7 @@
         <v>84</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>82</v>
@@ -14936,10 +14892,10 @@
         <v>84</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>84</v>
@@ -14950,13 +14906,13 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>84</v>
@@ -14980,16 +14936,16 @@
         <v>96</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -15039,7 +14995,7 @@
         <v>84</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>82</v>
@@ -15060,10 +15016,10 @@
         <v>84</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>84</v>
@@ -15074,13 +15030,13 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="D104" t="s" s="2">
         <v>84</v>
@@ -15104,16 +15060,16 @@
         <v>96</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -15163,7 +15119,7 @@
         <v>84</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>82</v>
@@ -15184,10 +15140,10 @@
         <v>84</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>84</v>
@@ -15198,13 +15154,13 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>84</v>
@@ -15228,16 +15184,16 @@
         <v>96</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -15287,7 +15243,7 @@
         <v>84</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>82</v>
@@ -15308,10 +15264,10 @@
         <v>84</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>84</v>
@@ -15322,13 +15278,13 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>84</v>
@@ -15337,7 +15293,7 @@
         <v>43</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>95</v>
@@ -15352,16 +15308,16 @@
         <v>96</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -15411,7 +15367,7 @@
         <v>84</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>82</v>
@@ -15432,10 +15388,10 @@
         <v>84</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>84</v>
@@ -15446,13 +15402,13 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>84</v>
@@ -15476,16 +15432,16 @@
         <v>96</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -15535,7 +15491,7 @@
         <v>84</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>82</v>
@@ -15556,10 +15512,10 @@
         <v>84</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>84</v>
@@ -15570,13 +15526,13 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>84</v>
@@ -15585,7 +15541,7 @@
         <v>43</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>95</v>
@@ -15600,16 +15556,16 @@
         <v>96</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15659,7 +15615,7 @@
         <v>84</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>82</v>
@@ -15680,10 +15636,10 @@
         <v>84</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>84</v>
@@ -15694,13 +15650,13 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D109" t="s" s="2">
         <v>84</v>
@@ -15724,16 +15680,16 @@
         <v>96</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15783,7 +15739,7 @@
         <v>84</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>82</v>
@@ -15804,10 +15760,10 @@
         <v>84</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>84</v>
@@ -15818,28 +15774,24 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="C110" t="s" s="2">
-        <v>655</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="E110" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>84</v>
@@ -15848,16 +15800,16 @@
         <v>96</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>619</v>
+        <v>652</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>620</v>
+        <v>653</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -15907,7 +15859,7 @@
         <v>84</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>615</v>
+        <v>649</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>82</v>
@@ -15928,10 +15880,10 @@
         <v>84</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>623</v>
+        <v>654</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>84</v>
@@ -15942,28 +15894,24 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="C111" t="s" s="2">
-        <v>659</v>
-      </c>
+        <v>655</v>
+      </c>
+      <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="E111" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I111" t="s" s="2">
         <v>84</v>
@@ -15972,18 +15920,20 @@
         <v>96</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>660</v>
+        <v>546</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>619</v>
+        <v>657</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="O111" s="2"/>
+        <v>658</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>659</v>
+      </c>
       <c r="P111" t="s" s="2">
         <v>84</v>
       </c>
@@ -16031,7 +15981,7 @@
         <v>84</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>615</v>
+        <v>655</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>82</v>
@@ -16052,10 +16002,10 @@
         <v>84</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>622</v>
+        <v>660</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>623</v>
+        <v>661</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>84</v>
@@ -16069,17 +16019,13 @@
         <v>662</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="C112" t="s" s="2">
-        <v>663</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="E112" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
         <v>82</v>
       </c>
@@ -16087,26 +16033,24 @@
         <v>95</v>
       </c>
       <c r="H112" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I112" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>664</v>
+        <v>160</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>665</v>
+        <v>161</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>620</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N112" s="2"/>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>84</v>
@@ -16155,19 +16099,19 @@
         <v>84</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>615</v>
+        <v>163</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>84</v>
@@ -16176,10 +16120,10 @@
         <v>84</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>622</v>
+        <v>84</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>623</v>
+        <v>164</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>84</v>
@@ -16190,47 +16134,41 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="C113" t="s" s="2">
-        <v>667</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="E113" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>668</v>
+        <v>140</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>669</v>
+        <v>181</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>620</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N113" s="2"/>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>84</v>
@@ -16267,19 +16205,17 @@
         <v>84</v>
       </c>
       <c r="AB113" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="AC113" s="2"/>
       <c r="AD113" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>615</v>
+        <v>172</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>82</v>
@@ -16291,7 +16227,7 @@
         <v>84</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>84</v>
@@ -16300,10 +16236,10 @@
         <v>84</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>622</v>
+        <v>84</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>623</v>
+        <v>84</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>84</v>
@@ -16314,12 +16250,14 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="C114" s="2"/>
+        <v>663</v>
+      </c>
+      <c r="C114" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="D114" t="s" s="2">
         <v>84</v>
       </c>
@@ -16328,7 +16266,7 @@
         <v>82</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>84</v>
@@ -16337,20 +16275,18 @@
         <v>84</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>671</v>
+        <v>230</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>672</v>
+        <v>231</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>674</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N114" s="2"/>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
         <v>84</v>
@@ -16399,7 +16335,7 @@
         <v>84</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>670</v>
+        <v>172</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>82</v>
@@ -16408,10 +16344,10 @@
         <v>83</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>84</v>
@@ -16420,10 +16356,10 @@
         <v>84</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>622</v>
+        <v>84</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>675</v>
+        <v>138</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>84</v>
@@ -16434,10 +16370,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16448,7 +16384,7 @@
         <v>82</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>84</v>
@@ -16457,23 +16393,19 @@
         <v>84</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>563</v>
+        <v>160</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>677</v>
+        <v>161</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>679</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>680</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>84</v>
       </c>
@@ -16521,19 +16453,19 @@
         <v>84</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>676</v>
+        <v>163</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>84</v>
@@ -16542,10 +16474,10 @@
         <v>84</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>681</v>
+        <v>84</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>682</v>
+        <v>164</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>84</v>
@@ -16556,10 +16488,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>683</v>
+        <v>668</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16570,7 +16502,7 @@
         <v>82</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>84</v>
@@ -16582,13 +16514,13 @@
         <v>84</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -16627,31 +16559,31 @@
         <v>84</v>
       </c>
       <c r="AB116" t="s" s="2">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="AC116" t="s" s="2">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="AD116" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>84</v>
@@ -16663,7 +16595,7 @@
         <v>84</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>84</v>
@@ -16674,10 +16606,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>684</v>
+        <v>669</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16685,10 +16617,10 @@
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>84</v>
@@ -16700,22 +16632,24 @@
         <v>84</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N117" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q117" s="2"/>
       <c r="R117" t="s" s="2">
-        <v>84</v>
+        <v>235</v>
       </c>
       <c r="S117" t="s" s="2">
         <v>84</v>
@@ -16745,29 +16679,31 @@
         <v>84</v>
       </c>
       <c r="AB117" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AC117" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="AD117" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>84</v>
@@ -16779,7 +16715,7 @@
         <v>84</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>84</v>
@@ -16790,20 +16726,18 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="C118" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>672</v>
+      </c>
+      <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
         <v>84</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>95</v>
@@ -16818,13 +16752,13 @@
         <v>84</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -16875,19 +16809,19 @@
         <v>84</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>84</v>
@@ -16910,42 +16844,46 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>84</v>
+        <v>557</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>161</v>
+        <v>558</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
+        <v>559</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="P119" t="s" s="2">
         <v>84</v>
       </c>
@@ -16993,19 +16931,19 @@
         <v>84</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>163</v>
+        <v>560</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>84</v>
@@ -17017,7 +16955,7 @@
         <v>84</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>84</v>
@@ -17028,10 +16966,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>689</v>
+        <v>674</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17039,10 +16977,10 @@
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>84</v>
@@ -17051,19 +16989,23 @@
         <v>84</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>140</v>
+        <v>284</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>181</v>
+        <v>675</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
+        <v>676</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="P120" t="s" s="2">
         <v>84</v>
       </c>
@@ -17087,58 +17029,58 @@
         <v>84</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>84</v>
+        <v>512</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>84</v>
+        <v>678</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>84</v>
+        <v>679</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AB120" t="s" s="2">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="AC120" t="s" s="2">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="AD120" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>172</v>
+        <v>674</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>84</v>
+        <v>680</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>84</v>
+        <v>318</v>
       </c>
       <c r="AO120" t="s" s="2">
-        <v>84</v>
+        <v>319</v>
       </c>
       <c r="AP120" t="s" s="2">
         <v>84</v>
@@ -17146,10 +17088,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17157,7 +17099,7 @@
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>95</v>
@@ -17169,27 +17111,29 @@
         <v>84</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>109</v>
+        <v>682</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>184</v>
+        <v>683</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>185</v>
+        <v>426</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O121" s="2"/>
+        <v>684</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="P121" t="s" s="2">
         <v>84</v>
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>235</v>
+        <v>84</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>84</v>
@@ -17219,22 +17163,20 @@
         <v>84</v>
       </c>
       <c r="AB121" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="AC121" s="2"/>
       <c r="AD121" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>187</v>
+        <v>681</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>95</v>
@@ -17243,41 +17185,43 @@
         <v>84</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>84</v>
+        <v>685</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>84</v>
+        <v>433</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>138</v>
+        <v>434</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP121" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="C122" s="2"/>
+        <v>681</v>
+      </c>
+      <c r="C122" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="D122" t="s" s="2">
         <v>84</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>95</v>
@@ -17289,19 +17233,23 @@
         <v>84</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>237</v>
+        <v>160</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>191</v>
+        <v>683</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N122" s="2"/>
-      <c r="O122" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="P122" t="s" s="2">
         <v>84</v>
       </c>
@@ -17349,7 +17297,7 @@
         <v>84</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>193</v>
+        <v>681</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>82</v>
@@ -17367,62 +17315,64 @@
         <v>84</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>84</v>
+        <v>685</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>84</v>
+        <v>433</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>138</v>
+        <v>434</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="C123" s="2"/>
+        <v>681</v>
+      </c>
+      <c r="C123" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="D123" t="s" s="2">
-        <v>574</v>
+        <v>84</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>84</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="J123" t="s" s="2">
         <v>96</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>140</v>
+        <v>440</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>575</v>
+        <v>683</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>576</v>
+        <v>426</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>170</v>
+        <v>684</v>
       </c>
       <c r="O123" t="s" s="2">
-        <v>241</v>
+        <v>428</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>84</v>
@@ -17471,53 +17421,55 @@
         <v>84</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>577</v>
+        <v>681</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>84</v>
+        <v>685</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>84</v>
+        <v>433</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>138</v>
+        <v>434</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP123" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="C124" s="2"/>
+        <v>681</v>
+      </c>
+      <c r="C124" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="D124" t="s" s="2">
         <v>84</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>95</v>
@@ -17529,22 +17481,22 @@
         <v>84</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>284</v>
+        <v>443</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>696</v>
+        <v>444</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>697</v>
+        <v>445</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>698</v>
+        <v>446</v>
       </c>
       <c r="O124" t="s" s="2">
-        <v>312</v>
+        <v>428</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>84</v>
@@ -17569,13 +17521,13 @@
         <v>84</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>529</v>
+        <v>84</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>699</v>
+        <v>84</v>
       </c>
       <c r="Z124" t="s" s="2">
-        <v>700</v>
+        <v>84</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>84</v>
@@ -17593,34 +17545,34 @@
         <v>84</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>107</v>
+        <v>447</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>701</v>
+        <v>84</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>317</v>
+        <v>448</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>318</v>
+        <v>449</v>
       </c>
       <c r="AO124" t="s" s="2">
-        <v>319</v>
+        <v>84</v>
       </c>
       <c r="AP124" t="s" s="2">
         <v>84</v>
@@ -17628,12 +17580,14 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="C125" s="2"/>
+        <v>681</v>
+      </c>
+      <c r="C125" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="D125" t="s" s="2">
         <v>84</v>
       </c>
@@ -17651,22 +17605,22 @@
         <v>84</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>703</v>
+        <v>453</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>704</v>
+        <v>455</v>
       </c>
       <c r="O125" t="s" s="2">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>84</v>
@@ -17703,17 +17657,19 @@
         <v>84</v>
       </c>
       <c r="AB125" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AC125" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="AD125" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>82</v>
@@ -17722,39 +17678,39 @@
         <v>95</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>107</v>
+        <v>456</v>
       </c>
       <c r="AK125" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>705</v>
+        <v>84</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>453</v>
+        <v>138</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP125" t="s" s="2">
-        <v>455</v>
+        <v>84</v>
       </c>
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D126" t="s" s="2">
         <v>84</v>
@@ -17776,19 +17732,19 @@
         <v>96</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>160</v>
+        <v>460</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>703</v>
+        <v>683</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>704</v>
+        <v>684</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>84</v>
@@ -17837,7 +17793,7 @@
         <v>84</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>82</v>
@@ -17855,30 +17811,30 @@
         <v>84</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>705</v>
+        <v>685</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP126" t="s" s="2">
-        <v>455</v>
+        <v>435</v>
       </c>
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D127" t="s" s="2">
         <v>84</v>
@@ -17897,22 +17853,22 @@
         <v>84</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>461</v>
+        <v>683</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>462</v>
+        <v>426</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>463</v>
+        <v>684</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="P127" t="s" s="2">
         <v>84</v>
@@ -17961,7 +17917,7 @@
         <v>84</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>82</v>
@@ -17970,39 +17926,39 @@
         <v>95</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>464</v>
+        <v>107</v>
       </c>
       <c r="AK127" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>84</v>
+        <v>685</v>
       </c>
       <c r="AM127" t="s" s="2">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>466</v>
+        <v>434</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP127" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>84</v>
@@ -18021,22 +17977,22 @@
         <v>84</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>470</v>
+        <v>683</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>471</v>
+        <v>426</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>472</v>
+        <v>684</v>
       </c>
       <c r="O128" t="s" s="2">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>84</v>
@@ -18085,7 +18041,7 @@
         <v>84</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>82</v>
@@ -18094,39 +18050,39 @@
         <v>95</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>473</v>
+        <v>107</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>84</v>
+        <v>685</v>
       </c>
       <c r="AM128" t="s" s="2">
-        <v>138</v>
+        <v>433</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>474</v>
+        <v>434</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP128" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D129" t="s" s="2">
         <v>84</v>
@@ -18145,22 +18101,22 @@
         <v>84</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>703</v>
+        <v>470</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>446</v>
+        <v>471</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>704</v>
+        <v>472</v>
       </c>
       <c r="O129" t="s" s="2">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>84</v>
@@ -18209,7 +18165,7 @@
         <v>84</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>82</v>
@@ -18218,39 +18174,39 @@
         <v>95</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>107</v>
+        <v>473</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>705</v>
+        <v>84</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP129" t="s" s="2">
-        <v>455</v>
+        <v>84</v>
       </c>
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D130" t="s" s="2">
         <v>84</v>
@@ -18272,19 +18228,19 @@
         <v>96</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>480</v>
+        <v>284</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>703</v>
+        <v>683</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>704</v>
+        <v>684</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>84</v>
@@ -18309,13 +18265,11 @@
         <v>84</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y130" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="Y130" s="2"/>
       <c r="Z130" t="s" s="2">
-        <v>84</v>
+        <v>478</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>84</v>
@@ -18333,7 +18287,7 @@
         <v>84</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>82</v>
@@ -18351,31 +18305,29 @@
         <v>84</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>705</v>
+        <v>685</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP130" t="s" s="2">
-        <v>455</v>
+        <v>435</v>
       </c>
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="C131" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>695</v>
+      </c>
+      <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
         <v>84</v>
       </c>
@@ -18393,22 +18345,22 @@
         <v>84</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="N131" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="O131" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="O131" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>84</v>
@@ -18433,13 +18385,13 @@
         <v>84</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>84</v>
+        <v>343</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>84</v>
+        <v>484</v>
       </c>
       <c r="Z131" t="s" s="2">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="AA131" t="s" s="2">
         <v>84</v>
@@ -18457,7 +18409,7 @@
         <v>84</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>82</v>
@@ -18466,7 +18418,7 @@
         <v>95</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>84</v>
+        <v>486</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>107</v>
@@ -18475,40 +18427,38 @@
         <v>84</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>705</v>
+        <v>84</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>453</v>
+        <v>138</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>454</v>
+        <v>487</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP131" t="s" s="2">
-        <v>455</v>
+        <v>84</v>
       </c>
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="C132" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
-        <v>84</v>
+        <v>489</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>84</v>
@@ -18520,19 +18470,19 @@
         <v>84</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>486</v>
+        <v>284</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="O132" t="s" s="2">
-        <v>448</v>
+        <v>493</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>84</v>
@@ -18557,13 +18507,13 @@
         <v>84</v>
       </c>
       <c r="X132" t="s" s="2">
-        <v>84</v>
+        <v>343</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>84</v>
+        <v>494</v>
       </c>
       <c r="Z132" t="s" s="2">
-        <v>84</v>
+        <v>495</v>
       </c>
       <c r="AA132" t="s" s="2">
         <v>84</v>
@@ -18581,49 +18531,47 @@
         <v>84</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>490</v>
+        <v>107</v>
       </c>
       <c r="AK132" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>84</v>
+        <v>496</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP132" t="s" s="2">
-        <v>84</v>
+        <v>499</v>
       </c>
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="C133" t="s" s="2">
-        <v>494</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
         <v>84</v>
       </c>
@@ -18632,7 +18580,7 @@
         <v>82</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>84</v>
@@ -18641,22 +18589,22 @@
         <v>84</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>284</v>
+        <v>84</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>446</v>
+        <v>702</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>704</v>
+        <v>549</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>448</v>
+        <v>550</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>84</v>
@@ -18681,11 +18629,13 @@
         <v>84</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="Y133" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="Z133" t="s" s="2">
-        <v>495</v>
+        <v>84</v>
       </c>
       <c r="AA133" t="s" s="2">
         <v>84</v>
@@ -18703,13 +18653,13 @@
         <v>84</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="AI133" t="s" s="2">
         <v>84</v>
@@ -18721,389 +18671,23 @@
         <v>84</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>705</v>
+        <v>84</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>453</v>
+        <v>552</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>454</v>
+        <v>553</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP133" t="s" s="2">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="134" hidden="true">
-      <c r="A134" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="B134" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="C134" s="2"/>
-      <c r="D134" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="E134" s="2"/>
-      <c r="F134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J134" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>715</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>716</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>717</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="P134" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q134" s="2"/>
-      <c r="R134" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S134" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL134" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AN134" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AO134" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP134" t="s" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="135" hidden="true">
-      <c r="A135" t="s" s="2">
-        <v>718</v>
-      </c>
-      <c r="B135" t="s" s="2">
-        <v>718</v>
-      </c>
-      <c r="C135" s="2"/>
-      <c r="D135" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="E135" s="2"/>
-      <c r="F135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G135" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J135" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K135" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="P135" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q135" s="2"/>
-      <c r="R135" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S135" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T135" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U135" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V135" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W135" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X135" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="Y135" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="Z135" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AA135" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD135" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE135" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF135" t="s" s="2">
-        <v>718</v>
-      </c>
-      <c r="AG135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH135" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI135" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ135" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL135" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AO135" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP135" t="s" s="2">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="136" hidden="true">
-      <c r="A136" t="s" s="2">
-        <v>719</v>
-      </c>
-      <c r="B136" t="s" s="2">
-        <v>719</v>
-      </c>
-      <c r="C136" s="2"/>
-      <c r="D136" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="E136" s="2"/>
-      <c r="F136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G136" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J136" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K136" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>720</v>
-      </c>
-      <c r="M136" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="P136" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Q136" s="2"/>
-      <c r="R136" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="S136" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="T136" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="U136" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="V136" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="W136" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="X136" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Y136" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="Z136" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AA136" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AF136" t="s" s="2">
-        <v>719</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH136" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI136" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AJ136" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AK136" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL136" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AM136" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AN136" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AO136" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP136" t="s" s="2">
         <v>84</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP136">
+  <autoFilter ref="A1:AP133">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -19113,7 +18697,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI135">
+  <conditionalFormatting sqref="A2:AI132">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/ch-lab-report/StructureDefinition-ch-lab-observation-cbc-panel.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-observation-cbc-panel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5145" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5145" uniqueCount="687">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:59:06+00:00</t>
+    <t>2025-05-22T14:17:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(work))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -480,7 +480,7 @@
     <t>supportingInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {workflow-supportingInfo}
+    <t xml:space="preserve">Extension {workflow-supportingInfo|4.0.1}
 </t>
   </si>
   <si>
@@ -488,6 +488,10 @@
   </si>
   <si>
     <t>Other resources *from the patient record* that may be relevant to the event.  The information from these resources was either used to create the instance or is provided to help with its interpretation.  This extension **should not** be used if more specific  inline elements  or extensions are available.  For example, use `Observation.hasMember`  instead of supportingInformation for  representing the members of an Observation panel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>Observation.extension:triggeredBy-r5</t>
@@ -504,10 +508,6 @@
   </si>
   <si>
     <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>Observation.extension:triggeredBy-r5.id</t>
@@ -738,7 +738,7 @@
     <t>value-r5</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.value[x]}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.value%5Bx%5D}
 </t>
   </si>
   <si>
@@ -1250,7 +1250,7 @@
     <t>data-absent-reason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {data-absent-reason}
+    <t xml:space="preserve">Extension {data-absent-reason|4.0.1}
 </t>
   </si>
   <si>
@@ -1328,7 +1328,7 @@
     <t>performerFunction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {event-performerFunction}
+    <t xml:space="preserve">Extension {event-performerFunction|4.0.1}
 </t>
   </si>
   <si>
@@ -1421,25 +1421,6 @@
 </t>
   </si>
   <si>
-    <t>Set of values bounded by low and high</t>
-  </si>
-  <si>
-    <t>A set of ordered Quantities defined by a low and high limit.</t>
-  </si>
-  <si>
-    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
-  </si>
-  <si>
-    <t>NR and also possibly SN (but see also quantity)</t>
-  </si>
-  <si>
-    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueRatio</t>
   </si>
   <si>
@@ -1450,22 +1431,6 @@
 </t>
   </si>
   <si>
-    <t>A measured ratio using UCUM</t>
-  </si>
-  <si>
-    <t>A measured ratio (or a ratio that can potentially be measured) and uncertainty of the measurement. This profile imposes that the code system for units be UCUM.</t>
-  </si>
-  <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
-  </si>
-  <si>
-    <t>RTO</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueTime</t>
   </si>
   <si>
@@ -1506,30 +1471,14 @@
 </t>
   </si>
   <si>
-    <t>A measured amount using UCUM</t>
-  </si>
-  <si>
-    <t>A measured amount (or an amount that can potentially be measured) and uncertainty of the measurement. Note that measured amounts include amounts that are not precisely quantified, including amounts involving arbitrary units and floating currencies.
-This profile imposes that the code system for units be UCUM.</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueCodeableConcept</t>
   </si>
   <si>
     <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {http://hl7.org/fhir/uv/ips/StructureDefinition/CodeableConcept-uv-ips}
+</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/uv/ips/ValueSet/results-coded-values-laboratory-uv-ips</t>
@@ -2581,15 +2530,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.3515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="41.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.8828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="35.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2600,28 +2549,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.73046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.06640625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3802,7 +3751,7 @@
         <v>83</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>146</v>
@@ -3828,13 +3777,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>139</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>84</v>
@@ -3856,13 +3805,13 @@
         <v>84</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3922,7 +3871,7 @@
         <v>83</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>146</v>
@@ -6300,7 +6249,7 @@
         <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>146</v>
@@ -6420,7 +6369,7 @@
         <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>146</v>
@@ -6540,7 +6489,7 @@
         <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>146</v>
@@ -6600,7 +6549,7 @@
         <v>231</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6660,7 +6609,7 @@
         <v>83</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>146</v>
@@ -10428,7 +10377,7 @@
         <v>82</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>84</v>
@@ -11405,19 +11354,19 @@
         <v>84</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>443</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>428</v>
@@ -11478,39 +11427,39 @@
         <v>95</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>157</v>
+        <v>431</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>447</v>
+        <v>107</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>84</v>
+        <v>432</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>423</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>84</v>
@@ -11529,19 +11478,19 @@
         <v>84</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>428</v>
@@ -11602,39 +11551,39 @@
         <v>95</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>157</v>
+        <v>431</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>456</v>
+        <v>107</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>84</v>
+        <v>432</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>138</v>
+        <v>433</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>423</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>84</v>
@@ -11656,7 +11605,7 @@
         <v>96</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>425</v>
@@ -11752,13 +11701,13 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>423</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>84</v>
@@ -11780,7 +11729,7 @@
         <v>96</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>425</v>
@@ -11876,13 +11825,13 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>423</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>84</v>
@@ -11904,7 +11853,7 @@
         <v>96</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>425</v>
@@ -12000,13 +11949,13 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>423</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>84</v>
@@ -12025,19 +11974,19 @@
         <v>84</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>471</v>
+        <v>426</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>472</v>
+        <v>427</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>428</v>
@@ -12098,39 +12047,39 @@
         <v>95</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>157</v>
+        <v>431</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>473</v>
+        <v>107</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>84</v>
+        <v>432</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>475</v>
+        <v>434</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>423</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>84</v>
@@ -12152,7 +12101,7 @@
         <v>96</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>284</v>
+        <v>461</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>425</v>
@@ -12193,7 +12142,7 @@
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>84</v>
@@ -12246,10 +12195,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12275,16 +12224,16 @@
         <v>284</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>84</v>
@@ -12312,10 +12261,10 @@
         <v>343</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>84</v>
@@ -12333,7 +12282,7 @@
         <v>84</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>82</v>
@@ -12342,7 +12291,7 @@
         <v>95</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>107</v>
@@ -12357,7 +12306,7 @@
         <v>138</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>84</v>
@@ -12368,14 +12317,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12397,16 +12346,16 @@
         <v>284</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>84</v>
@@ -12434,10 +12383,10 @@
         <v>343</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>84</v>
@@ -12455,7 +12404,7 @@
         <v>84</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>82</v>
@@ -12473,27 +12422,27 @@
         <v>84</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>499</v>
+        <v>483</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12516,19 +12465,19 @@
         <v>84</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>84</v>
@@ -12577,7 +12526,7 @@
         <v>84</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>82</v>
@@ -12598,10 +12547,10 @@
         <v>84</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>84</v>
@@ -12612,10 +12561,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12641,13 +12590,13 @@
         <v>284</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12673,13 +12622,13 @@
         <v>84</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>84</v>
@@ -12697,7 +12646,7 @@
         <v>84</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>82</v>
@@ -12715,27 +12664,27 @@
         <v>84</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>518</v>
+        <v>502</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12761,16 +12710,16 @@
         <v>284</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>84</v>
@@ -12799,7 +12748,7 @@
       </c>
       <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>84</v>
@@ -12817,7 +12766,7 @@
         <v>84</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>82</v>
@@ -12838,10 +12787,10 @@
         <v>84</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>84</v>
@@ -12852,10 +12801,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12878,16 +12827,16 @@
         <v>84</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12937,7 +12886,7 @@
         <v>84</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>82</v>
@@ -12955,27 +12904,27 @@
         <v>84</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>535</v>
+        <v>519</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12998,16 +12947,16 @@
         <v>84</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -13057,7 +13006,7 @@
         <v>84</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>82</v>
@@ -13075,27 +13024,27 @@
         <v>84</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>544</v>
+        <v>528</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13118,19 +13067,19 @@
         <v>84</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>84</v>
@@ -13179,7 +13128,7 @@
         <v>84</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>82</v>
@@ -13191,7 +13140,7 @@
         <v>84</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>84</v>
@@ -13200,10 +13149,10 @@
         <v>84</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>84</v>
@@ -13214,10 +13163,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13332,10 +13281,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13452,14 +13401,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13481,10 +13430,10 @@
         <v>140</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="N91" t="s" s="2">
         <v>170</v>
@@ -13539,7 +13488,7 @@
         <v>84</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>82</v>
@@ -13574,10 +13523,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13600,13 +13549,13 @@
         <v>84</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13657,7 +13606,7 @@
         <v>84</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>82</v>
@@ -13666,7 +13615,7 @@
         <v>95</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>107</v>
@@ -13678,10 +13627,10 @@
         <v>84</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>84</v>
@@ -13692,10 +13641,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13718,13 +13667,13 @@
         <v>84</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13775,7 +13724,7 @@
         <v>84</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>82</v>
@@ -13784,7 +13733,7 @@
         <v>95</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>107</v>
@@ -13796,10 +13745,10 @@
         <v>84</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>84</v>
@@ -13810,10 +13759,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13839,16 +13788,16 @@
         <v>284</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>84</v>
@@ -13876,10 +13825,10 @@
         <v>119</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>84</v>
@@ -13897,7 +13846,7 @@
         <v>84</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>82</v>
@@ -13915,13 +13864,13 @@
         <v>84</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>84</v>
@@ -13932,10 +13881,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13961,16 +13910,16 @@
         <v>284</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>84</v>
@@ -13995,13 +13944,13 @@
         <v>84</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>84</v>
@@ -14019,7 +13968,7 @@
         <v>84</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>82</v>
@@ -14037,13 +13986,13 @@
         <v>84</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>84</v>
@@ -14054,10 +14003,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14080,17 +14029,17 @@
         <v>84</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>84</v>
@@ -14139,7 +14088,7 @@
         <v>84</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>82</v>
@@ -14163,7 +14112,7 @@
         <v>84</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>84</v>
@@ -14174,10 +14123,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14203,10 +14152,10 @@
         <v>160</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -14257,7 +14206,7 @@
         <v>84</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>82</v>
@@ -14278,10 +14227,10 @@
         <v>84</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>84</v>
@@ -14292,10 +14241,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14303,7 +14252,7 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>83</v>
@@ -14318,16 +14267,16 @@
         <v>96</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14365,7 +14314,7 @@
         <v>84</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="AC98" s="2"/>
       <c r="AD98" t="s" s="2">
@@ -14375,7 +14324,7 @@
         <v>144</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>82</v>
@@ -14396,10 +14345,10 @@
         <v>84</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>84</v>
@@ -14410,13 +14359,13 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>84</v>
@@ -14440,16 +14389,16 @@
         <v>96</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14499,7 +14448,7 @@
         <v>84</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>82</v>
@@ -14520,10 +14469,10 @@
         <v>84</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>84</v>
@@ -14534,13 +14483,13 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>84</v>
@@ -14564,16 +14513,16 @@
         <v>96</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -14623,7 +14572,7 @@
         <v>84</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>82</v>
@@ -14644,10 +14593,10 @@
         <v>84</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>84</v>
@@ -14658,13 +14607,13 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>84</v>
@@ -14688,16 +14637,16 @@
         <v>96</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14747,7 +14696,7 @@
         <v>84</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>82</v>
@@ -14768,10 +14717,10 @@
         <v>84</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>84</v>
@@ -14782,13 +14731,13 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="D102" t="s" s="2">
         <v>84</v>
@@ -14812,16 +14761,16 @@
         <v>96</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14871,7 +14820,7 @@
         <v>84</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>82</v>
@@ -14892,10 +14841,10 @@
         <v>84</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>84</v>
@@ -14906,13 +14855,13 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>84</v>
@@ -14936,16 +14885,16 @@
         <v>96</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14995,7 +14944,7 @@
         <v>84</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>82</v>
@@ -15016,10 +14965,10 @@
         <v>84</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>84</v>
@@ -15030,13 +14979,13 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="D104" t="s" s="2">
         <v>84</v>
@@ -15060,16 +15009,16 @@
         <v>96</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -15119,7 +15068,7 @@
         <v>84</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>82</v>
@@ -15140,10 +15089,10 @@
         <v>84</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>84</v>
@@ -15154,13 +15103,13 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>84</v>
@@ -15184,16 +15133,16 @@
         <v>96</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -15243,7 +15192,7 @@
         <v>84</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>82</v>
@@ -15264,10 +15213,10 @@
         <v>84</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>84</v>
@@ -15278,13 +15227,13 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>84</v>
@@ -15308,16 +15257,16 @@
         <v>96</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -15367,7 +15316,7 @@
         <v>84</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>82</v>
@@ -15388,10 +15337,10 @@
         <v>84</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>84</v>
@@ -15402,13 +15351,13 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="D107" t="s" s="2">
         <v>84</v>
@@ -15432,16 +15381,16 @@
         <v>96</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -15491,7 +15440,7 @@
         <v>84</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>82</v>
@@ -15512,10 +15461,10 @@
         <v>84</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>84</v>
@@ -15526,13 +15475,13 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>84</v>
@@ -15556,16 +15505,16 @@
         <v>96</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -15615,7 +15564,7 @@
         <v>84</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>82</v>
@@ -15636,10 +15585,10 @@
         <v>84</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>84</v>
@@ -15650,13 +15599,13 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="D109" t="s" s="2">
         <v>84</v>
@@ -15680,16 +15629,16 @@
         <v>96</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -15739,7 +15688,7 @@
         <v>84</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>82</v>
@@ -15760,10 +15709,10 @@
         <v>84</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>84</v>
@@ -15774,10 +15723,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15800,16 +15749,16 @@
         <v>96</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -15859,7 +15808,7 @@
         <v>84</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>82</v>
@@ -15880,10 +15829,10 @@
         <v>84</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>84</v>
@@ -15894,10 +15843,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15920,19 +15869,19 @@
         <v>96</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>84</v>
@@ -15981,7 +15930,7 @@
         <v>84</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>82</v>
@@ -16002,10 +15951,10 @@
         <v>84</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>84</v>
@@ -16016,10 +15965,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16134,10 +16083,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16250,10 +16199,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="C114" t="s" s="2">
         <v>229</v>
@@ -16284,7 +16233,7 @@
         <v>231</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -16344,7 +16293,7 @@
         <v>83</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>146</v>
@@ -16370,10 +16319,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16488,10 +16437,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16606,10 +16555,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16726,10 +16675,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16844,14 +16793,14 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
@@ -16873,10 +16822,10 @@
         <v>140</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="N119" t="s" s="2">
         <v>170</v>
@@ -16931,7 +16880,7 @@
         <v>84</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>82</v>
@@ -16966,10 +16915,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16995,13 +16944,13 @@
         <v>284</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>312</v>
@@ -17029,13 +16978,13 @@
         <v>84</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>84</v>
@@ -17053,7 +17002,7 @@
         <v>84</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>95</v>
@@ -17071,7 +17020,7 @@
         <v>84</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>317</v>
@@ -17088,10 +17037,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17114,16 +17063,16 @@
         <v>96</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="M121" t="s" s="2">
         <v>426</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>428</v>
@@ -17173,7 +17122,7 @@
         <v>144</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>82</v>
@@ -17191,7 +17140,7 @@
         <v>84</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>433</v>
@@ -17208,10 +17157,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="C122" t="s" s="2">
         <v>437</v>
@@ -17239,13 +17188,13 @@
         <v>160</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="M122" t="s" s="2">
         <v>426</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>428</v>
@@ -17297,7 +17246,7 @@
         <v>84</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>82</v>
@@ -17315,7 +17264,7 @@
         <v>84</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>433</v>
@@ -17332,10 +17281,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="C123" t="s" s="2">
         <v>439</v>
@@ -17363,13 +17312,13 @@
         <v>440</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="M123" t="s" s="2">
         <v>426</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>428</v>
@@ -17421,7 +17370,7 @@
         <v>84</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>82</v>
@@ -17439,7 +17388,7 @@
         <v>84</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>433</v>
@@ -17456,10 +17405,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="C124" t="s" s="2">
         <v>442</v>
@@ -17481,19 +17430,19 @@
         <v>84</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K124" t="s" s="2">
         <v>443</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>444</v>
+        <v>667</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>446</v>
+        <v>668</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>428</v>
@@ -17545,7 +17494,7 @@
         <v>84</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>82</v>
@@ -17554,39 +17503,39 @@
         <v>95</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>447</v>
+        <v>107</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>84</v>
+        <v>669</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP124" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D125" t="s" s="2">
         <v>84</v>
@@ -17605,19 +17554,19 @@
         <v>84</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>453</v>
+        <v>667</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>455</v>
+        <v>668</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>428</v>
@@ -17669,7 +17618,7 @@
         <v>84</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>82</v>
@@ -17678,39 +17627,39 @@
         <v>95</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>456</v>
+        <v>107</v>
       </c>
       <c r="AK125" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>84</v>
+        <v>669</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>138</v>
+        <v>433</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP125" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D126" t="s" s="2">
         <v>84</v>
@@ -17732,16 +17681,16 @@
         <v>96</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="M126" t="s" s="2">
         <v>426</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>428</v>
@@ -17793,7 +17742,7 @@
         <v>84</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>82</v>
@@ -17811,7 +17760,7 @@
         <v>84</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>433</v>
@@ -17828,13 +17777,13 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="D127" t="s" s="2">
         <v>84</v>
@@ -17856,16 +17805,16 @@
         <v>96</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="M127" t="s" s="2">
         <v>426</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>428</v>
@@ -17917,7 +17866,7 @@
         <v>84</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>82</v>
@@ -17935,7 +17884,7 @@
         <v>84</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>433</v>
@@ -17952,13 +17901,13 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>84</v>
@@ -17980,16 +17929,16 @@
         <v>96</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="M128" t="s" s="2">
         <v>426</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>428</v>
@@ -18041,7 +17990,7 @@
         <v>84</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>82</v>
@@ -18059,7 +18008,7 @@
         <v>84</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>433</v>
@@ -18076,13 +18025,13 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="D129" t="s" s="2">
         <v>84</v>
@@ -18101,19 +18050,19 @@
         <v>84</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>470</v>
+        <v>667</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>471</v>
+        <v>426</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>472</v>
+        <v>668</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>428</v>
@@ -18165,7 +18114,7 @@
         <v>84</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>82</v>
@@ -18174,39 +18123,39 @@
         <v>95</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>473</v>
+        <v>107</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>84</v>
+        <v>669</v>
       </c>
       <c r="AM129" t="s" s="2">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>475</v>
+        <v>434</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP129" t="s" s="2">
-        <v>84</v>
+        <v>435</v>
       </c>
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="D130" t="s" s="2">
         <v>84</v>
@@ -18228,16 +18177,16 @@
         <v>96</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>284</v>
+        <v>461</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="M130" t="s" s="2">
         <v>426</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>428</v>
@@ -18269,7 +18218,7 @@
       </c>
       <c r="Y130" s="2"/>
       <c r="Z130" t="s" s="2">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>84</v>
@@ -18287,7 +18236,7 @@
         <v>84</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>82</v>
@@ -18305,7 +18254,7 @@
         <v>84</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>433</v>
@@ -18322,10 +18271,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18351,16 +18300,16 @@
         <v>284</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>84</v>
@@ -18388,10 +18337,10 @@
         <v>343</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="Z131" t="s" s="2">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="AA131" t="s" s="2">
         <v>84</v>
@@ -18409,7 +18358,7 @@
         <v>84</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>82</v>
@@ -18418,7 +18367,7 @@
         <v>95</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>107</v>
@@ -18433,7 +18382,7 @@
         <v>138</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>84</v>
@@ -18444,14 +18393,14 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
@@ -18473,16 +18422,16 @@
         <v>284</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="O132" t="s" s="2">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>84</v>
@@ -18510,10 +18459,10 @@
         <v>343</v>
       </c>
       <c r="Y132" t="s" s="2">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="Z132" t="s" s="2">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="AA132" t="s" s="2">
         <v>84</v>
@@ -18531,7 +18480,7 @@
         <v>84</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>82</v>
@@ -18549,27 +18498,27 @@
         <v>84</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AP132" t="s" s="2">
-        <v>499</v>
+        <v>483</v>
       </c>
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18595,16 +18544,16 @@
         <v>84</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>84</v>
@@ -18653,7 +18602,7 @@
         <v>84</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>82</v>
@@ -18674,10 +18623,10 @@
         <v>84</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>84</v>

--- a/ig/ch-lab-report/StructureDefinition-ch-lab-observation-cbc-panel.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-observation-cbc-panel.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T14:17:25+00:00</t>
+    <t>2025-12-16T10:40:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -389,7 +389,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -815,7 +815,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -844,7 +844,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -927,7 +927,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:$this}
@@ -1107,7 +1107,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1152,7 +1152,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1175,7 +1175,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1503,7 +1503,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1535,7 +1535,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1594,7 +1594,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1665,7 +1665,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1745,7 +1745,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1795,7 +1795,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1828,7 +1828,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -2031,7 +2031,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -2119,7 +2119,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -12315,7 +12315,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
         <v>472</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
         <v>484</v>
       </c>
@@ -14357,7 +14357,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="99" hidden="true">
+    <row r="99">
       <c r="A99" t="s" s="2">
         <v>591</v>
       </c>
@@ -14481,7 +14481,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
         <v>595</v>
       </c>
@@ -14605,7 +14605,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
         <v>599</v>
       </c>
@@ -14729,7 +14729,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="102" hidden="true">
+    <row r="102">
       <c r="A102" t="s" s="2">
         <v>602</v>
       </c>
@@ -14853,7 +14853,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="103" hidden="true">
+    <row r="103">
       <c r="A103" t="s" s="2">
         <v>605</v>
       </c>
@@ -14977,7 +14977,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
         <v>609</v>
       </c>
@@ -15101,7 +15101,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" hidden="true">
+    <row r="105">
       <c r="A105" t="s" s="2">
         <v>613</v>
       </c>
@@ -15225,7 +15225,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="106" hidden="true">
+    <row r="106">
       <c r="A106" t="s" s="2">
         <v>617</v>
       </c>
@@ -15349,7 +15349,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="107" hidden="true">
+    <row r="107">
       <c r="A107" t="s" s="2">
         <v>621</v>
       </c>
@@ -15473,7 +15473,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="108" hidden="true">
+    <row r="108">
       <c r="A108" t="s" s="2">
         <v>625</v>
       </c>
@@ -15597,7 +15597,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="109" hidden="true">
+    <row r="109">
       <c r="A109" t="s" s="2">
         <v>629</v>
       </c>
@@ -18637,12 +18637,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP133">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
